--- a/Congressional-District-1-Special-Election-Results.xlsx
+++ b/Congressional-District-1-Special-Election-Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Dropbox\My PC (DESKTOP-7FLKCVD)\Documents\Python\MN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0487970F-ABEF-433C-8071-25D42AD09985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5706C4F-585E-459A-AC36-AF94EE774E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{CBE0AFEA-5AD5-4568-AC55-E89F7A5B70C1}"/>
   </bookViews>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="H3">
         <f>SUM(PrecinctResults!K3:K728)</f>
-        <v>3630</v>
+        <v>3721</v>
       </c>
       <c r="I3">
         <f>SUM(PrecinctResults!L3:L728)</f>
@@ -3368,10 +3368,10 @@
   <dimension ref="A1:T729"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E696" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E474" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J728"/>
+      <selection pane="bottomRight" activeCell="I480" sqref="I480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -4240,7 +4240,7 @@
         <v>10</v>
       </c>
       <c r="K23" s="3">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="L23" s="3">
         <v>0</v>
@@ -21790,7 +21790,7 @@
         <v>10</v>
       </c>
       <c r="K483" s="3">
-        <v>5</v>
+        <v>51</v>
       </c>
       <c r="L483" s="3">
         <v>0</v>
